--- a/regions/6/infrastruqtura/infrastruqtura.xlsx
+++ b/regions/6/infrastruqtura/infrastruqtura.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -580,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -592,7 +592,7 @@
     <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -607,8 +607,10 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1">
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1">
       <c r="A2" s="11"/>
       <c r="B2" s="6">
         <v>2011</v>
@@ -643,8 +645,14 @@
       <c r="L2" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1">
+      <c r="M2" s="6">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -681,8 +689,14 @@
       <c r="L3" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1">
+      <c r="M3" s="9">
+        <v>100</v>
+      </c>
+      <c r="N3" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -719,10 +733,16 @@
       <c r="L4" s="10">
         <v>86.182580388683647</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1"/>
-    <row r="6" spans="1:12" s="3" customFormat="1"/>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="M4" s="10">
+        <v>88.988442608354632</v>
+      </c>
+      <c r="N4" s="10">
+        <v>86.434486922911404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1"/>
+    <row r="6" spans="1:14" s="3" customFormat="1"/>
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
@@ -737,8 +757,10 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1">
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" s="3" customFormat="1">
       <c r="A8" s="11"/>
       <c r="B8" s="6">
         <v>2011</v>
@@ -773,8 +795,14 @@
       <c r="L8" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1">
+      <c r="M8" s="6">
+        <v>2022</v>
+      </c>
+      <c r="N8" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1">
       <c r="A9" s="12" t="s">
         <v>0</v>
       </c>
@@ -811,8 +839,14 @@
       <c r="L9" s="14">
         <v>64.647474251264271</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1">
+      <c r="M9" s="14">
+        <v>64.970754384237893</v>
+      </c>
+      <c r="N9" s="14">
+        <v>65.484389116195103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="3" customFormat="1">
       <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
@@ -849,8 +883,14 @@
       <c r="L10" s="14">
         <v>4.6540355625848884</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1">
+      <c r="M10" s="14">
+        <v>2.8328001581106741</v>
+      </c>
+      <c r="N10" s="14">
+        <v>4.0358041019224382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1">
       <c r="A11" s="12" t="s">
         <v>2</v>
       </c>
@@ -887,8 +927,14 @@
       <c r="L11" s="14">
         <v>19.728771560095883</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1">
+      <c r="M11" s="14">
+        <v>20.664174381443129</v>
+      </c>
+      <c r="N11" s="14">
+        <v>18.129578589268601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="3" customFormat="1">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -925,8 +971,14 @@
       <c r="L12" s="14">
         <v>10.969718626054959</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1">
+      <c r="M12" s="14">
+        <v>11.532271076208293</v>
+      </c>
+      <c r="N12" s="14">
+        <v>12.350228192613852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1">
       <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
@@ -963,8 +1015,14 @@
       <c r="L13" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1">
+      <c r="M13" s="15">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="3" customFormat="1">
       <c r="A14" s="17" t="s">
         <v>9</v>
       </c>
@@ -979,8 +1037,10 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1">
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:14" s="3" customFormat="1">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -991,8 +1051,8 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1"/>
-    <row r="17" spans="2:9" ht="15.75">
+    <row r="16" spans="1:14" s="3" customFormat="1"/>
+    <row r="17" spans="2:9">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1004,9 +1064,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A14:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
